--- a/webroot/files/contact_csv-import.xlsx
+++ b/webroot/files/contact_csv-import.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="206" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="206"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts-csv-import" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="contacts-csv-import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -29,7 +28,111 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Ismert név, pl avatott név, becenév</t>
+          <t>Ismert név, pl avatott név, becenév</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Polgári név</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Irányítószám magában, vagy szóközzel városnévvel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1: férfi, 2: nő</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Munkahely irányítószám úgy mint az irányítószámnál</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sanga beli id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sanga beli szakértelem id ,-vel elválasztva</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sanga beli csoport id, az importáló usernek kell lennie ehhez hozzáférésnek, ha valamelyik alapból kijelölt csoportba nem akarjuk betenni akkor annak a számát negatív számként kell beírni</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Innentől kezdve bármilyen oszlop lehet bármilyen tartalommal, ezek mind a megjegyzéshez kerülnek beolvasásra</t>
         </r>
       </text>
     </comment>
@@ -42,111 +145,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Az oszlopok tetszőleges sorrendben lehetnek és ha valamelyikben nincs adat akkor az elhagyható</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Polgári név</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Irányítószám magában, vagy szóközzel városnévvel</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1: férfi, 2: nő</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Munkahely irányítószám úgy mint az irányítószámnál</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Sanga beli id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Sanga beli szakértelem id ,-vel elválasztva</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Sanga beli csoport id, az importáló usernek kell lennie ehhez hozzáférésnek</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Innentől kezdve bármilyen oszlop lehet bármilyen tartalommal, ezek mind a megjegyzéshez kerülnek beolvasásra</t>
+          <t>Az oszlopok tetszőleges sorrendben lehetnek és ha valamelyikben nincs adat akkor az elhagyható</t>
         </r>
       </text>
     </comment>
@@ -155,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>contactname</t>
   </si>
@@ -266,17 +265,19 @@
   </si>
   <si>
     <t>108-626-296</t>
+  </si>
+  <si>
+    <t>5,-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -284,22 +285,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -321,7 +307,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -329,65 +315,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -446,398 +395,451 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10051560" cy="9524160"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9360">
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:miter/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
@@ -846,31 +848,313 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="2.41836734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="987" min="21" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="988" style="0" width="8.72959183673469"/>
+    <col min="1" max="6" width="13.7109375"/>
+    <col min="7" max="7" width="13.7109375" style="1"/>
+    <col min="8" max="15" width="13.7109375"/>
+    <col min="16" max="17" width="13.42578125"/>
+    <col min="18" max="18" width="2.42578125" style="2"/>
+    <col min="19" max="19" width="13.7109375"/>
+    <col min="20" max="20" width="8"/>
+    <col min="21" max="987" width="11.5703125"/>
+    <col min="988" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -932,99 +1216,101 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>8699</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;COldal &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/webroot/files/contact_csv-import.xlsx
+++ b/webroot/files/contact_csv-import.xlsx
@@ -1,17 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="206"/>
-  </bookViews>
-  <sheets>
-    <sheet name="contacts-csv-import" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-</workbook>
-</file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -153,266 +139,6 @@
 </comments>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
-  <si>
-    <t>contactname</t>
-  </si>
-  <si>
-    <t>legalname</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>workplace</t>
-  </si>
-  <si>
-    <t>workplace_zip</t>
-  </si>
-  <si>
-    <t>workplace_address</t>
-  </si>
-  <si>
-    <t>workplace_phone</t>
-  </si>
-  <si>
-    <t>workplace_email</t>
-  </si>
-  <si>
-    <t>contactsource_id</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>születési név</t>
-  </si>
-  <si>
-    <t>taj</t>
-  </si>
-  <si>
-    <t>Acyuta Isvara</t>
-  </si>
-  <si>
-    <t>Kovács Attila</t>
-  </si>
-  <si>
-    <t>Radha-Krisna krt. 2.</t>
-  </si>
-  <si>
-    <t>1991-04-06 00:00:00</t>
-  </si>
-  <si>
-    <t>7,5,6</t>
-  </si>
-  <si>
-    <t>043-903-087</t>
-  </si>
-  <si>
-    <t>Liget Nóra</t>
-  </si>
-  <si>
-    <t>7838 Piskó</t>
-  </si>
-  <si>
-    <t>Fő u 10</t>
-  </si>
-  <si>
-    <t>1989-01-23 00:00:00</t>
-  </si>
-  <si>
-    <t>091-127-589</t>
-  </si>
-  <si>
-    <t>Pesti Andi</t>
-  </si>
-  <si>
-    <t>Pesti Andrea</t>
-  </si>
-  <si>
-    <t>7838 Vejti</t>
-  </si>
-  <si>
-    <t>Fő u 2</t>
-  </si>
-  <si>
-    <t>1994-09-26 00:00:00</t>
-  </si>
-  <si>
-    <t>108-626-296</t>
-  </si>
-  <si>
-    <t>5,-3</t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFF99"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -846,291 +572,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
